--- a/testdata/Data_ID.xlsx
+++ b/testdata/Data_ID.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="260" yWindow="700" windowWidth="12270" windowHeight="9420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="340" yWindow="560" windowWidth="10260" windowHeight="9420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ID" sheetId="1" state="visible" r:id="rId1"/>
@@ -413,16 +413,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
     <col width="18.296875" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
-    <col width="8.8984375" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
+    <col width="5.796875" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -455,21 +455,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1120111004059</t>
+          <t>1120111004094</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>1120111004060</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/Data_ID.xlsx
+++ b/testdata/Data_ID.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="340" yWindow="560" windowWidth="10260" windowHeight="9420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="340" yWindow="560" windowWidth="12270" windowHeight="9420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ID" sheetId="1" state="visible" r:id="rId1"/>
@@ -416,7 +416,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -455,7 +455,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1120111004094</t>
+          <t>1120111004229</t>
         </is>
       </c>
       <c r="B4" t="n">

--- a/testdata/Data_ID.xlsx
+++ b/testdata/Data_ID.xlsx
@@ -455,11 +455,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1120111004229</t>
+          <t>1120111004277</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/Data_ID.xlsx
+++ b/testdata/Data_ID.xlsx
@@ -455,11 +455,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1120111004277</t>
+          <t>1120111004361</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/Data_ID.xlsx
+++ b/testdata/Data_ID.xlsx
@@ -455,7 +455,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1120111004361</t>
+          <t>1120111004422</t>
         </is>
       </c>
       <c r="B4" t="n">

--- a/testdata/Data_ID.xlsx
+++ b/testdata/Data_ID.xlsx
@@ -455,7 +455,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1120111004422</t>
+          <t>1120111004451</t>
         </is>
       </c>
       <c r="B4" t="n">

--- a/testdata/Data_ID.xlsx
+++ b/testdata/Data_ID.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
@@ -455,11 +455,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1120111004451</t>
+          <t>1130111003967</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1130111003968</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1130111003969</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/Data_ID.xlsx
+++ b/testdata/Data_ID.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
@@ -455,7 +455,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1130111003967</t>
+          <t>1130111003970</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -465,21 +465,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1130111003968</t>
+          <t>1130111003971</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>1130111003969</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/Data_ID.xlsx
+++ b/testdata/Data_ID.xlsx
@@ -455,7 +455,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1130111003970</t>
+          <t>1130111003977</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -465,7 +465,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1130111003971</t>
+          <t>1130111003978</t>
         </is>
       </c>
       <c r="B5" t="n">

--- a/testdata/Data_ID.xlsx
+++ b/testdata/Data_ID.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="340" yWindow="560" windowWidth="12270" windowHeight="9420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="380" yWindow="380" windowWidth="14480" windowHeight="9500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ID" sheetId="1" state="visible" r:id="rId1"/>
@@ -413,10 +413,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -452,10 +452,10 @@
         </is>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="17" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1130111003977</t>
+          <t>1130111004095</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -465,11 +465,31 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1130111003978</t>
+          <t>1130111004096</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1130111004097</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1130111004098</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/Data_ID.xlsx
+++ b/testdata/Data_ID.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
@@ -455,7 +455,7 @@
     <row r="4" ht="17" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1130111004095</t>
+          <t>1130111004185</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -465,7 +465,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1130111004096</t>
+          <t>1130111004186</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -475,21 +475,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1130111004097</t>
+          <t>1130111004187</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>1130111004098</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/Data_ID.xlsx
+++ b/testdata/Data_ID.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
@@ -455,7 +455,7 @@
     <row r="4" ht="17" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1130111004185</t>
+          <t>1130111004215</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -465,21 +465,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1130111004186</t>
+          <t>1130111004216</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>1130111004187</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
